--- a/OpticsPlasma/PlasmaDiagnostics_Laborbuch.xlsx
+++ b/OpticsPlasma/PlasmaDiagnostics_Laborbuch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-Notebook\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FDD2D0D-6323-4303-A5DD-AFF9173C712F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043CD0D4-A4AF-40CF-B57B-E0596A6A31A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6E8A4E08-5F79-4096-81E5-874DB59F37E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Aufgabe 2.2</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>14.5 ns</t>
+  </si>
+  <si>
+    <t>Pixel pro cm:</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFCEB38-33D7-4F8D-B2A8-1654BEE59362}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1090,12 @@
       <c r="C31">
         <v>714</v>
       </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
